--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/22_Çanakkale_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/22_Çanakkale_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9DFE977-C3D5-4E6D-8352-A58C60F3134F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{489EF3E6-3873-42CE-BFB4-D5ADFD31A899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{11DA3F90-5BEA-4B5C-8899-BCE280DE2731}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{D8BF407A-0ED7-4123-AE85-F312C02EAE0E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{1E488F04-C450-466D-821C-B36B765F23CC}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{FB64FD76-9951-4C36-AF63-B52F12C24C7D}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{E5569714-0FB8-4943-93FE-315932CA5C5B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{6376EA49-405B-4357-A326-B6FA3C19D9C4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{A92D3593-7907-4C39-946D-C3F8D2C06270}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{2B74AF14-9825-45DD-A09F-6454FFB15E28}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{64D11EDB-9EDE-45BB-8C18-0F322A23897A}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4FDEE584-2E8B-4052-B3D6-866D2515A5EC}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{808FD147-D8F3-4374-8562-B41A9C175836}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{A8460870-18D6-4CE0-9385-7C4C31D1321F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{3379294F-3090-4221-BD3A-8577EFF5AC9A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{E6AFBDA2-4FD7-4B5D-A6C3-66387855E397}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{255DBEE0-6C43-4DDA-ABC7-2723D138CDD0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{7E75E4CF-4BE9-428D-8C5C-233B6A6DBC6B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C4DD6A-9472-44F1-86EA-EE97DD8496B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047CAAD2-A795-4369-A03D-E83997D7758B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2571,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47B8346-ACDD-4851-9F70-7414CB4C8DBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C131752-874B-4F28-9791-64D1F64F00D1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3806,7 +3806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC997F1B-725A-4BE3-A9A2-0289499EB6C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AE19CA-DB37-4349-930D-F2533FFA7843}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5035,7 +5035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF72A97A-80D0-4188-8298-3871B357419A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9AD519-B210-48EA-B35B-14FCE5630464}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6254,7 +6254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB20D7B-3BE7-491E-935D-492A842030D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA71D27B-F096-46E4-941C-2D8530B253F0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7531,7 +7531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5EC306-B8D9-4B8F-8680-63D82037D921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B97C4BF-FCE6-44BB-81F7-B5315630EC65}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8804,7 +8804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319FE691-1519-4584-90D3-78446ED06922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942656C9-31F7-4281-AAB2-5C5BEE2D4D84}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10077,7 +10077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDD010A-41B0-48E2-97F6-8993F47C21A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0186F764-CCAB-4AB5-AC34-95F9D8528D5C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11350,7 +11350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E344A4A3-84A1-4444-9844-96CE29509669}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3175138-098B-44AA-AE80-06754FE38131}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12623,7 +12623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B850EE1C-C43A-460B-A4CB-9656DCC76846}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BC607C-2F54-4F57-98BD-1EB121743F75}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13878,7 +13878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82C89E1-D2FE-46B0-A74D-9DC806F38086}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65825A3D-8C42-4DD7-AF01-35E3B6B367BA}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15133,7 +15133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF63B31-8788-4F6C-812E-B785998911AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2909EA-7D5F-44AD-9665-90580205E6F5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
